--- a/InputData/trans/BLP/BAU LCFS Perc.xlsx
+++ b/InputData/trans/BLP/BAU LCFS Perc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.4.2-us-2019\InputData\trans\BLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\BLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="21075" windowHeight="13110" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="21075" windowHeight="13110"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -529,9 +529,6 @@
     <t>to the renewable fuel to get the decarbonization (LCFS) percentage.</t>
   </si>
   <si>
-    <t>BAU LCFS Perc</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -617,6 +614,9 @@
   </si>
   <si>
     <t>Projections:  EIA, AEO2019 National Energy Modeling System run ref2019.d111618a.</t>
+  </si>
+  <si>
+    <t>BAU LCFS Perc (dimensionless)</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -1270,32 +1270,32 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1698,7 +1698,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C1" s="21">
         <v>2017</v>
@@ -1809,7 +1809,7 @@
         <v>133</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
@@ -1820,7 +1820,7 @@
         <v>132</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
@@ -1833,7 +1833,7 @@
         <v>130</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
@@ -1970,7 +1970,7 @@
         <v>126</v>
       </c>
       <c r="AK12" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2440,18 +2440,18 @@
     </row>
     <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C22" s="20">
         <v>205.31410199999999</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" s="20">
         <v>39.645065000000002</v>
@@ -6559,7 +6559,7 @@
         <v>52</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C68" s="17">
         <v>0.67915400000000004</v>
@@ -8146,7 +8146,7 @@
         <v>25</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C84" s="17">
         <v>0.32080900000000001</v>
@@ -8417,7 +8417,7 @@
     </row>
     <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8442,7 +8442,7 @@
     </row>
     <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8452,22 +8452,22 @@
     </row>
     <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B99" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8477,12 +8477,12 @@
     </row>
     <row r="102" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B102" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="103" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8492,17 +8492,17 @@
     </row>
     <row r="105" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B105" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="106" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B106" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B107" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -8518,7 +8518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -10142,7 +10142,7 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10288,9 +10288,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>167</v>
+    <row r="2" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="29">
         <f>Calcs!B32</f>
